--- a/data-set/i-0e731635dc10ce93e.xlsx
+++ b/data-set/i-0e731635dc10ce93e.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2599,6 +2599,516 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>03:08:44</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3430.0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3100.0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>03:10:39</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5255.0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5626.0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>03:11:15</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3486.0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3028.0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>03:12:53</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3510.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3204.0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>03:13:19</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3274.0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2924.0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>03:13:39</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3274.0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2924.0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>03:14:00</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6230.0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>11206.0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>03:14:21</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6230.0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>11206.0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>03:16:35</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2.0339</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3330.0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4436.0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>03:16:56</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2.0339</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3330.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4436.0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>03:18:48</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3280.0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2964.0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>03:19:28</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1.8033</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5392.0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5631.0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>03:19:49</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.8033</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5392.0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5631.0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>03:20:10</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2.0339</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3340.0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3024.0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>03:20:31</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2.0339</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3340.0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3024.0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>03:20:51</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2.0339</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3340.0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3024.0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>03:21:12</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3364.0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3056.0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>InService</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
